--- a/AUDATA_CASO_PRUEBA_ITTS_AAC_DIVISIONITEM_A_BYTES.xlsx
+++ b/AUDATA_CASO_PRUEBA_ITTS_AAC_DIVISIONITEM_A_BYTES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="16605" windowHeight="6780"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="16605" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>Reglas de confidencialidad</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Escenario</t>
-  </si>
-  <si>
-    <t>Variable 1</t>
   </si>
   <si>
     <t>Respuesta del sistema</t>
@@ -200,9 +197,6 @@
     <t>Jefry Domingo Acuña Melo</t>
   </si>
   <si>
-    <t>Yasiel Pérez Vera</t>
-  </si>
-  <si>
     <t>Forma de distribución: Digital</t>
   </si>
   <si>
@@ -221,9 +215,6 @@
     <t>Convertir de un DivisionItem a Array de Bytes codificado en AAC</t>
   </si>
   <si>
-    <t>.json</t>
-  </si>
-  <si>
     <t>EC 1.2 No convierte a AAC.</t>
   </si>
   <si>
@@ -248,9 +239,6 @@
     <t>Division Item (.json)</t>
   </si>
   <si>
-    <t>Estructura de árbol en .json</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -306,6 +294,24 @@
   </si>
   <si>
     <t xml:space="preserve">Debe cumplir con la estructura de la tabla Division Item, la trasformación a json debe tener una jerarquía limpia y ordenada. </t>
+  </si>
+  <si>
+    <t>EC1.1.json</t>
+  </si>
+  <si>
+    <t>EC1.2.json</t>
+  </si>
+  <si>
+    <t>EC1.3.json</t>
+  </si>
+  <si>
+    <t>EC1.4.json</t>
+  </si>
+  <si>
+    <t>EC1.5.json</t>
+  </si>
+  <si>
+    <t>Objeto</t>
   </si>
 </sst>
 </file>
@@ -690,6 +696,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -723,26 +738,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,7 +1136,7 @@
   <dimension ref="A2:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1288,13 +1294,13 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
+      <c r="F14" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1302,11 +1308,11 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -1314,11 +1320,11 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
@@ -1326,11 +1332,11 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -1339,7 +1345,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1348,7 +1354,7 @@
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
@@ -1373,25 +1379,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="B21" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
+      <c r="B22" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1413,16 +1419,16 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
       <c r="H24" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I24" s="34"/>
       <c r="J24" s="34"/>
@@ -1430,24 +1436,24 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="35"/>
       <c r="D25" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="38"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
@@ -1455,22 +1461,22 @@
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
-      <c r="J26" s="39"/>
+      <c r="J26" s="42"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="35" t="s">
         <v>18</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="35" t="s">
-        <v>19</v>
       </c>
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
@@ -1478,17 +1484,17 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="35" t="s">
         <v>20</v>
-      </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="35" t="s">
-        <v>21</v>
       </c>
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
@@ -1531,12 +1537,12 @@
     </row>
     <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1545,11 +1551,11 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
+      <c r="B33" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1560,7 +1566,7 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
@@ -1586,7 +1592,7 @@
     <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
@@ -1615,20 +1621,20 @@
         <v>1</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G38" s="34"/>
       <c r="H38" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
@@ -1636,23 +1642,23 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="26" t="s">
-        <v>36</v>
-      </c>
       <c r="D39" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E39" s="21">
-        <v>43558</v>
+        <v>43711</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G39" s="31"/>
       <c r="H39" s="31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I39" s="31"/>
       <c r="J39" s="31"/>
@@ -1672,7 +1678,7 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1724,7 +1730,7 @@
   <dimension ref="A2:M49"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1758,10 +1764,10 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1775,7 +1781,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1819,7 +1825,7 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -1855,13 +1861,13 @@
         <v>3</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>8</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1870,20 +1876,20 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>53</v>
+      <c r="B10" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>49</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>55</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1892,13 +1898,13 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:13" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="48"/>
+        <v>64</v>
+      </c>
+      <c r="E11" s="51"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1907,20 +1913,20 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>66</v>
+      <c r="B12" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>62</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>55</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1930,13 +1936,13 @@
     </row>
     <row r="13" spans="1:13" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="48"/>
+        <v>65</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1944,20 +1950,20 @@
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>65</v>
+      <c r="B14" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>61</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>55</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1968,13 +1974,13 @@
     </row>
     <row r="15" spans="1:13" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="48"/>
+        <v>66</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1984,20 +1990,20 @@
     </row>
     <row r="16" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>62</v>
+      <c r="B16" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>58</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>55</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -2008,13 +2014,13 @@
     </row>
     <row r="17" spans="1:12" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="46"/>
-      <c r="F17" s="48"/>
+        <v>67</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2024,20 +2030,20 @@
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>50</v>
+      <c r="B18" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>46</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="48" t="s">
         <v>59</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -2048,13 +2054,13 @@
     </row>
     <row r="19" spans="1:12" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="48"/>
+        <v>68</v>
+      </c>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2476,7 +2482,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2493,26 +2499,26 @@
       <c r="A1" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
+      <c r="B3" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>13</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>3</v>
@@ -2520,19 +2526,19 @@
     </row>
     <row r="6" spans="1:6" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
